--- a/VPDN/定向开通成功率.xlsx
+++ b/VPDN/定向开通成功率.xlsx
@@ -776,7 +776,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -827,7 +827,9 @@
       <c r="B3" s="1">
         <v>15</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>19</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -841,7 +843,9 @@
       <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -855,7 +859,9 @@
       <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -869,7 +875,9 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -883,7 +891,9 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -897,7 +907,9 @@
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -911,7 +923,9 @@
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -923,10 +937,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="2">
-        <f>(B5+B6+B7+B9)/B3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C10" s="1"/>
+        <f>B4/B3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C4/C3</f>
+        <v>0.84210526315789469</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1006,7 +1023,9 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1020,7 +1039,9 @@
       <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1034,7 +1055,9 @@
       <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1048,7 +1071,9 @@
       <c r="B19" s="1">
         <v>0</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1062,7 +1087,9 @@
       <c r="B20" s="1">
         <v>0</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1076,7 +1103,9 @@
       <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1090,7 +1119,9 @@
       <c r="B22" s="1">
         <v>0</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1102,10 +1133,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="10">
-        <f>(B18+B19+B20+B22)/B16</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="11"/>
+        <f>B17/B16</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <f>C17/C16</f>
+        <v>1</v>
+      </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>

--- a/VPDN/定向开通成功率.xlsx
+++ b/VPDN/定向开通成功率.xlsx
@@ -776,7 +776,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -830,7 +830,9 @@
       <c r="C3" s="1">
         <v>19</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>16</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -846,7 +848,9 @@
       <c r="C4" s="1">
         <v>16</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>15</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -862,7 +866,9 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -878,7 +884,9 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -894,7 +902,9 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -910,7 +920,9 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -926,7 +938,9 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -944,7 +958,10 @@
         <f>C4/C3</f>
         <v>0.84210526315789469</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="2">
+        <f>D4/D3</f>
+        <v>0.9375</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1026,7 +1043,9 @@
       <c r="C16" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>8</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1042,7 +1061,9 @@
       <c r="C17" s="1">
         <v>4</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1058,7 +1079,9 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1074,7 +1097,9 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1090,7 +1115,9 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1106,7 +1133,9 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1122,7 +1151,9 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1140,7 +1171,10 @@
         <f>C17/C16</f>
         <v>1</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="10">
+        <f>D17/D16</f>
+        <v>1</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
